--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.zh-Hant.xlsx
@@ -1061,12 +1061,12 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使用節點選擇器和親和性控制Pod調度。</t>
+          <t>集群和工作負載架構：使用節點選擇器和關聯性控制Pod調度。</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>允許 Kubernetes 調度器按節點中的硬體邏輯隔離工作負載。與容忍度不同，沒有匹配節點選擇器的 Pod 可以調度在標記的節點上，這允許節點上未使用的資源使用，但優先考慮定義匹配節點選擇器的 Pod。使用節點親和性可提高靈活性，這使您可以定義如果 Pod 無法與節點匹配時會發生什麼情況。</t>
+          <t>允許 Kubernetes 調度程式按節點中的硬體在邏輯上隔離工作負載。與 tolerations 不同，沒有匹配節點選擇器的 Pod 可以調度到有標籤的節點上，這允許節點上未使用的資源被消耗，但優先考慮定義匹配節點選擇器的 Pod。使用節點關聯性可以提高靈活性，這允許您定義如果 Pod 無法與節點匹配會發生什麼情況。</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>集群架構：確保根據網路需求和集群大小正確選擇網路外掛程式。</t>
+          <t>集群架構：確保根據網路要求和集群大小正確選擇網路外掛程式。</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>特定方案（例如，基於 Windows 的節點池、特定網路要求和 Kubernetes 網路策略）需要 Azure CNI。有關詳細資訊，請參閱 Kubenet 與 Azure CNI。</t>
+          <t>特定方案需要 Azure CNI，例如基於 Windows 的節點池、特定網路要求和 Kubernetes 網路策略。有關詳細資訊，請參閱 Kubenet 與 Azure CNI。</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>AKS 運行時間 SLA 保證： - 對於使用 Azure 可用性區域的 AKS 群集，Kubernetes API 伺服器終結點的可用性為“99.95%”，或者 - 對於不使用 Azure 可用性區域的 AKS 群集，可用性為“99.9%”。</t>
+          <t>AKS 運行時間 SLA 保證： - 使用 Azure 可用性區域的 AKS 群集的 Kubernetes API 伺服器終結點的可用性為“99.95%”，或者 - 不使用 Azure 可用性區域的 AKS 群集的“99.9%”可用性。</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使用容器見解配置集群監控。</t>
+          <t>集群和工作負載架構：使用 Container Insights 配置集群監控。</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>容器見解有助於通過指標 API 監控 Kubernetes 中可用的控制器、節點和容器的運行狀況和性能。與 Prometheus 集成後，可以收集應用程式和工作負載指標。</t>
+          <t>容器見解通過指標 API 幫助監控 Kubernetes 中可用的控制器、節點和容器的運行狀況和性能。與 Prometheus 集成支援收集應用程式和工作負載指標。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用可用性區域將 AKS 代理節點分佈在物理上獨立的數據中心，從而最大限度地提高 Azure 區域內的復原能力。</t>
+          <t>群集體系結構：使用可用性區域，通過在物理上獨立的數據中心之間分配 AKS 代理節點，最大限度地提高 Azure 區域中的復原能力。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>通過將節點池分佈在多個區域中，即使另一個區域已關閉，一個節點池中的節點也將繼續運行。如果存在同域性要求，則可以使用基於 VMSS 的常規 AKS 部署到單個區域或鄰近放置組來最大程度地減少節點間延遲。</t>
+          <t>通過將節點池分佈到多個區域，即使另一個區域出現故障，一個節點池中的節點也將繼續運行。如果存在共置性要求，則可以使用基於常規 VMSS 的 AKS 部署到單個區域或鄰近放置組中，以最大程度地減少節點間延遲。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大限度地提高可用性並提供業務連續性。</t>
+          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理員在 AKS 群集之間全域路由流量。</t>
+          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：將系統節點池與應用程式工作負載隔離。</t>
+          <t>集群和工作負載架構：使 System 節點池與應用程式工作負載隔離。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>系統節點池需要至少 2 個 vCPU 和 4 GB 記憶體的 VM SKU，但建議使用 4 個或更多的 vCPU。參考系統和用戶節點池，瞭解詳細要求。</t>
+          <t>系統節點池需要至少 2 個 vCPU 和 4 GB 記憶體的 VM SKU，但建議使用 4 個 vCPU 或更多。有關詳細要求，請參閱 系統和用戶節點池 。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>應用程式可能共用相同的配置，並且需要啟用了 GPU 的 VM、CPU 或記憶體優化的 VM，或者能夠擴展到零。避免使用大量節點池，以減少額外的管理開銷。</t>
+          <t>應用程式可能共用相同的配置，並且需要支援 GPU 的 VM、CPU 或記憶體優化的 VM，或者能夠擴展到零。避免使用大量節點池，以減少額外的管理開銷。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>集群架構：將 NAT 閘道用於運行產生許多併發出站連接的工作負載的集群。</t>
+          <t>集群架構：將 NAT 閘道用於運行建立許多併發出站連接的工作負載的集群。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>為了避免 Azure 負載均衡器限制在高併發出站流量下的可靠性問題，我們改用 NAT 閘道來支持大規模的可靠出口流量。</t>
+          <t>為了避免 Azure 負載均衡器限制的高併發出站流量的可靠性問題，請改用 NAT 閘道來支持大規模可靠的出口流量。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 可以集中標識管理元件。用戶帳戶或組狀態的任何更改都會在訪問 AKS 群集時自動更新。Kubernetes 集群的開發人員和應用程式擁有者需要訪問不同的資源。</t>
+          <t>使用 Microsoft Entra ID 可集中標識管理元件。用戶帳戶或組狀態的任何更改都會在訪問 AKS 群集時自動更新。Kubernetes 集群的開發人員和應用程式擁有者需要訪問不同的資源。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，節點池和 API 伺服器之間的網路流量通過 Microsoft 主幹網路傳輸;通過使用私有集群，您可以確保流向 API 伺服器的網路流量僅保持在私有網路上。</t>
+          <t>默認情況下，節點池和 API 伺服器之間的網路流量通過 Microsoft 主幹網路傳輸;通過使用私有集群，您可以確保到 API 伺服器的網路流量僅保留在私有網路上。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>使用公共集群時，您仍然可以使用授權IP範圍功能來限制可以到達集群 API 伺服器的流量。包括部署生成代理的公共IP、操作管理和節點池的出口點（例如 Azure 防火牆）等源。</t>
+          <t>使用公有集群時，您仍然可以使用授權的IP範圍功能來限制可以訪問集群 API 伺服器的流量。包括部署生成代理的公共IP、操作管理和節點池的出口點（例如 Azure 防火牆）等源。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>保護對 Kubernetes API 伺服器的訪問是您可以做的最重要的事情之一，以保護您的集群。將 Kubernetes 基於角色的訪問控制 （RBAC） 與 Microsoft Entra ID 整合，以控制對 API 伺服器的訪問。禁用本地帳戶以使用基於 Microsoft Entra ID 的標識強制執行所有群集訪問。</t>
+          <t>保護對 Kubernetes API 伺服器的訪問是保護集群的最重要措施之一。將 Kubernetes 基於角色的訪問控制 （RBAC） 與 Microsoft Entra ID 整合，以控制對 API 伺服器的訪問。禁用本地帳戶以使用基於 Microsoft Entra ID 的身份強制實施所有群集訪問。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 可以説明以集中、一致的方式在群集上應用大規模強制實施和保護措施。它還可以控制授予 pod 哪些功能，以及是否有任何內容違反公司策略。</t>
+          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：使用 Web 應用程式防火牆來保護 HTTP（S） 流量。</t>
+          <t>工作負載架構：使用 Web 應用程式防火牆保護 HTTP（S） 流量。</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>若要掃描傳入流量以查找潛在攻擊，請使用 Web 應用程式防火牆，例如 Azure 應用程式閘道或 Azure Front Door 上的 Azure Web 應用程式防火牆 （WAF）。</t>
+          <t>若要掃描傳入流量是否存在潛在攻擊，請使用 Web 應用程式防火牆，例如 Azure 應用程式閘道或 Azure Front Door 上的 Azure Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>確保群集的出站流量通過網路安全點，例如 Azure 防火牆或 HTTP 代理。</t>
+          <t>確保群集的出站流量通過網路安全點（如 Azure 防火牆或 HTTP 代理）傳遞。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>使用強加密保護和輪換 Azure Key Vault 中的機密、證書和連接字串。提供訪問審核日誌，並將核心機密排除在部署管道之外。</t>
+          <t>使用強加密保護和輪換 Azure Key Vault 中的機密、證書和連接字串。提供訪問審核日誌，並將核心密鑰排除在部署管道之外。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Microsoft Defender for Containers。</t>
+          <t>群集體系結構：使用適用於容器的 Microsoft Defender。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>將您的選擇與工作負載需求相匹配，可確保您不會為不需要的資源付費。</t>
+          <t>將您的選擇與您的工作負載需求相匹配，可確保您不會為不需要的資源付費。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>選擇正確的虛擬機實例類型至關重要，因為它直接影響在AKS上運行應用程式的成本。選擇高性能實例而沒有適當的利用率可能會導致浪費支出，而選擇功能強大的實例可能會導致性能問題和停機時間增加。要確定正確的虛擬機實例類型，請考慮工作負載特徵、資源要求和可用性需求。</t>
+          <t>選擇正確的虛擬機實例類型至關重要，因為它直接影響在AKS上運行應用程式的成本。選擇高性能實例而沒有適當利用可能會導致浪費支出，而選擇功能較弱的實例可能會導致性能問題和停機時間增加。要確定正確的虛擬機實例類型，請考慮工作負載特徵、資源要求和可用性需求。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>集群架構：選擇基於Arm架構的虛擬機。</t>
+          <t>集群架構：根據Arm架構選擇虛擬機。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>AKS 支援在群集中創建ARM64 Ubuntu代理節點，以及混合使用Intel和ARM體系結構的節點，這些節點可以以更低的成本帶來更好的性能。</t>
+          <t>AKS 支援在群集中創建ARM64 Ubuntu代理節點，以及混合Intel和ARM體系結構節點，這些節點可以以更低的成本帶來更好的性能。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：選擇「Azure 現成虛擬機」。。</t>
+          <t>群集體系結構：選擇 Azure 現成虛擬機。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>現成 VM 允許你以大幅折扣利用未使用的 Azure 容量（與即用即付價格相比，最高可享受 90%）。如果 Azure 需要恢復容量，Azure 基礎結構將逐出 Spot 節點。</t>
+          <t>通過現成 VM，您可以利用未利用的 Azure 容量，並享受大幅折扣（與即用即付價格相比，折扣高達 90%）。如果 Azure 需要恢復容量，Azure 基礎結構會逐出 Spot 節點。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>集群架構：選擇合適的地域。</t>
+          <t>集群架構：選擇合適的區域。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>由於許多因素，Azure 中每個區域的資源成本會有所不同。評估成本、延遲和合規性要求，以確保您以經濟高效的方式運行工作負載，並且不會影響您的最終使用者或產生額外的網路費用。</t>
+          <t>由於許多因素，Azure 中的資源成本因區域而異。評估成本、延遲和合規性要求，以確保您經濟高效地運行工作負載，並且不會影響您的最終使用者或產生額外的網路費用。</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：維護小型和優化的映像。</t>
+          <t>工作負載架構：維護小型和優化的映像。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>簡化圖像有助於降低成本，因為新節點需要下載這些圖像。以允許容器儘快啟動的方式生成映像，以説明避免在應用程式啟動時使用者請求失敗或超時，這可能導致過度預配。</t>
+          <t>簡化映像有助於降低成本，因為新節點需要下載這些映像。以允許容器儘快啟動的方式構建映像，以説明避免在應用程式啟動時使用者請求失敗或超時，從而可能導致過度配置。</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>通過自動縮減 AKS 群集中的節點數，可以在需求較低時運行高效的群集，並在需求返回時縱向擴展。</t>
+          <t>通過自動縮減 AKS 群集中的節點數，可以在需求較低時運行高效的群集，並在需求恢復時縱向擴展。</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：啟用節點自動預配以自動選擇 VM SKU。</t>
+          <t>群集體系結構：啟用 Node Autoprovision 以自動選擇 VM SKU。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>節點自動配置簡化了 SKU 選擇過程，並根據待處理的 Pod 資源要求決定最佳 VM 配置，以最高效且經濟高效的方式運行工作負載。</t>
+          <t>節點自動配置簡化了 SKU 選擇過程，並根據待處理的 Pod 資源要求決定最佳 VM 配置，以最高效、最經濟高效的方式運行工作負載。</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2076,7 +2076,7 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用水準Pod自動縮放器。</t>
+          <t>工作負載架構：使用 Horizontal Pod Autoscaler。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：使用垂直 Pod 自動縮放程式（預覽版）。</t>
+          <t>工作負載架構：使用 Vertical Pod Autoscaler（預覽版）。</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>調整 Pod 的大小，並根據歷史使用方式動態設置請求和限制。</t>
+          <t>合理調整 Pod 的大小，並根據歷史使用方式動態設置請求和限制。</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：使用 Kubernetes 事件驅動的自動縮放 （KEDA）。</t>
+          <t>工作負載架構：使用 Kubernetes 事件驅動的自動擴展 （KEDA）。</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>根據正在處理的事件數進行縮放。從 50+ KEDA 潔牙器的豐富目錄中選擇。</t>
+          <t>根據正在處理的事件數量進行擴展。從 50+ KEDA 潔牙機的豐富目錄中進行選擇。</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2178,12 +2178,12 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>群集和工作負載體系結構：採用雲財務規則和文化實踐來推動對雲使用的擁有權。</t>
+          <t>集群和工作負載架構：採用雲財務規則和文化實踐來推動雲使用的擁有權。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>實現成本優化的基礎是成本節約集群的分佈。財務運營方法 （FinOps） 通常用於幫助組織降低雲成本。它是一種涉及財務、運營和工程團隊之間協作的做法，旨在推動成本節約目標的一致性，並使雲成本透明化。</t>
+          <t>實現成本優化的基礎是成本節約集群的分佈。財務運營方法 （FinOps） 通常用於幫助組織降低雲成本。這是一種涉及財務、運營和工程團隊之間協作的做法，旨在推動成本節約目標的一致性並提高雲成本的透明度。</t>
         </is>
       </c>
       <c r="E41" s="21" t="n"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>如果正確規劃了容量，則工作負載是可預測的，並且會存在較長的時間段，請註冊 Azure 預留或節省計劃以進一步降低資源成本。</t>
+          <t>如果正確規劃了容量，工作負載是可預測的，並且存在較長時間，請註冊 Azure 預留或節省計劃，以進一步降低資源成本。</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2246,12 +2246,12 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>集群架構：使用容器見解配置集群監控。</t>
+          <t>群集體系結構：使用 Container Insights 配置群集監視。</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>容器見解有助於提供有關集群、空閒和未分配資源的可操作見解。容器見解還支援收集 Prometheus 指標，並與 Azure 託管 Grafana 集成，以全面瞭解應用程式和基礎結構。</t>
+          <t>容器見解有助於提供有關集群空閒和未分配資源的可行見解。容器見解還支援收集 Prometheus 指標，並與 Azure 託管 Grafana 集成，以獲得應用程式和基礎結構的整體視圖。</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>通過成本分析集群擴展，您可以深入瞭解與集群或命名空間中的各種 Kubernetes 資源關聯的成本。</t>
+          <t>成本分析集群擴展使您能夠精細地瞭解與集群或命名空間中的各種 Kubernetes 資源相關的成本。</t>
         </is>
       </c>
       <c r="E44" s="21" t="n"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>若要在 AKS 中成功生成和運行應用程式，需要瞭解和實施一些關鍵注意事項。這些領域包括多租戶和調度器功能、集群和 Pod 安全性，或業務連續性和災難恢復。</t>
+          <t>要在 AKS 中成功構建和運行應用程式，需要瞭解和實施一些關鍵注意事項。這些領域包括多租戶和計劃程式功能、集群和 Pod 安全性，或業務連續性和災難恢復。</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2381,12 +2381,12 @@
       <c r="B47" s="21" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使用容器見解配置集群監控。</t>
+          <t>集群和工作負載架構：使用 Container Insights 配置集群監控。</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>容器見解通過指標 API 和容器日誌從 Kubernetes 中可用的控制器、節點和容器收集記憶體和處理器指標，從而幫助監控容器的性能。</t>
+          <t>容器見解通過指標 API 和容器日誌從 Kubernetes 中提供的控制器、節點和容器收集記憶體和處理器指標，從而幫助監控容器的性能。</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2448,12 +2448,12 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用容器洞察配置 Prometheus 指標抓取。</t>
+          <t>工作負載架構：使用 Container Insights 配置 Prometheus 指標的抓取。</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>容器見解是 Azure Monitor 的一部分，可提供無縫的載入體驗來收集 Prometheus 指標。有關更多資訊，請參閱配置 Prometheus 指標的抓取。</t>
+          <t>容器見解是 Azure Monitor 的一部分，提供無縫的載入體驗來收集 Prometheus 指標。有關更多資訊，請參閱配置 Prometheus 指標的抓取。</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2481,12 +2481,12 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大限度地提高可用性並提供業務連續性。</t>
+          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理員在 AKS 群集之間全域路由流量。</t>
+          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2515,12 +2515,12 @@
       <c r="B51" s="21" t="n"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Azure Policy 操作群集和 Pod 配置標準。</t>
+          <t>群集體系結構：使用 Azure Policy 實施群集和 Pod 配置標準。</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 可以説明以集中、一致的方式在群集上應用大規模強制實施和保護措施。它還可以控制授予 pod 哪些功能，以及是否有任何內容違反公司策略。</t>
+          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：在發佈工程過程中使用平臺功能。</t>
+          <t>工作負載架構：在發佈工程流程中使用平臺功能。</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes 和入口控制器支援許多高級部署模式，可包含在您的發佈工程流程中。考慮藍綠部署或金絲雀發佈等模式。</t>
+          <t>Kubernetes 和 Ingress 控制器支援許多高級部署模式，以包含在您的發佈工程流程中。考慮藍綠部署或 Canary 發佈等模式。</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2583,12 +2583,12 @@
       <c r="B53" s="21" t="n"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：對於任務關鍵型工作負載，請使用標記級別的藍/綠部署。</t>
+          <t>集群和工作負載架構：對於任務關鍵型工作負載，請使用標記級藍/綠部署。</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>自動執行任務關鍵型設計領域，包括部署和測試。</t>
+          <t>自動化您的任務關鍵型設計領域，包括部署和測試。</t>
         </is>
       </c>
       <c r="E53" s="21" t="n"/>
@@ -2616,12 +2616,12 @@
       <c r="B54" s="21" t="n"/>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：制定詳細的容量計劃，並不斷審查和修訂。</t>
+          <t>集群和工作負載架構：制定詳細的容量計劃並不斷審查和修訂。</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
         <is>
-          <t>在正式確定容量計劃后，應通過持續觀察集群的資源利用率來頻繁更新容量計劃。</t>
+          <t>在正式確定容量計劃后，應通過持續觀察集群的資源利用率來經常更新它。</t>
         </is>
       </c>
       <c r="E54" s="21" t="n"/>
@@ -2650,12 +2650,12 @@
       <c r="B55" s="21" t="n"/>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>集群架構：啟用集群自動縮放程式，以根據資源限制自動調整代理節點數。</t>
+          <t>集群架構：啟用 Cluster Autoscaler 以自動調整代理節點的數量以響應資源限制。</t>
         </is>
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>通過自動增加或減少 AKS 群集中的節點數，可以運行高效且經濟高效的群集。</t>
+          <t>通過自動增加或減少 AKS 群集中的節點數，可以運行高效、經濟高效的群集。</t>
         </is>
       </c>
       <c r="E55" s="21" t="n"/>
@@ -2683,12 +2683,12 @@
       <c r="B56" s="21" t="n"/>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：將工作負載分離到不同的節點池中，並考慮縮放用戶節點池。</t>
+          <t>集群和工作負載架構：將工作負載分離到不同的節點池中，並考慮擴展用戶節點池。</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t>與始終需要運行節點的系統節點池不同，用戶節點池允許您縱向擴展或縮減。</t>
+          <t>與始終需要運行節點的系統節點池不同，用戶節點池允許您擴展或縮減。</t>
         </is>
       </c>
       <c r="E56" s="21" t="n"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>並非所有規模決策都可以從 CPU 或記憶體指標中得出。通常，規模考慮因素將來自更複雜甚至外部的數據點。使用 KEDA 根據特定於工作負載的信號生成有意義的自動縮放規則集。</t>
+          <t>並非所有擴展決策都可以從 CPU 或記憶體指標得出。通常，規模考慮因素來自更複雜甚至外部的數據點。使用 KEDA 根據特定於您的工作負載的信號構建有意義的 Auto Scale 規則集。</t>
         </is>
       </c>
       <c r="E58" s="21" t="n"/>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，並且沒有與之關聯的其他操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6831,7 +6831,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>不適用</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">

--- a/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/azurekubernetesservice_sg_checklist.zh-Hant.xlsx
@@ -1163,12 +1163,12 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使用 Container Insights 配置集群監控。</t>
+          <t>群集體系結構：使用可用性區域，通過在物理上獨立的數據中心之間分配 AKS 代理節點，最大限度地提高 Azure 區域中的復原能力。</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>容器見解通過指標 API 幫助監控 Kubernetes 中可用的控制器、節點和容器的運行狀況和性能。與 Prometheus 集成支援收集應用程式和工作負載指標。</t>
+          <t>通過將節點池分佈到多個區域，即使另一個區域出現故障，一個節點池中的節點也將繼續運行。如果存在共置性要求，則可以使用基於常規 VMSS 的 AKS 部署到單個區域或鄰近放置組中，以最大程度地減少節點間延遲。</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用可用性區域，通過在物理上獨立的數據中心之間分配 AKS 代理節點，最大限度地提高 Azure 區域中的復原能力。</t>
+          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>通過將節點池分佈到多個區域，即使另一個區域出現故障，一個節點池中的節點也將繼續運行。如果存在共置性要求，則可以使用基於常規 VMSS 的 AKS 部署到單個區域或鄰近放置組中，以最大程度地減少節點間延遲。</t>
+          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1218,7 +1218,7 @@
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>29400c1f-e4ff-4ab5-89ff-be93d51d5fa8</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1231,12 +1231,12 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
+          <t>群集和工作負載體系結構：在應用程式部署清單中定義Pod資源請求和限制，並使用 Azure Policy 強制實施。</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
+          <t>容器 CPU 和記憶體資源限制對於防止 Kubernetes 集群中的資源耗盡是必要的。</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1252,7 +1252,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1265,12 +1265,12 @@
       <c r="B14" s="21" t="n"/>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>群集和工作負載體系結構：在應用程式部署清單中定義Pod資源請求和限制，並使用 Azure Policy 強制實施。</t>
+          <t>集群和工作負載架構：使 System 節點池與應用程式工作負載隔離。</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>容器 CPU 和記憶體資源限制對於防止 Kubernetes 集群中的資源耗盡是必要的。</t>
+          <t>系統節點池需要至少 2 個 vCPU 和 4 GB 記憶體的 VM SKU，但建議使用 4 個 vCPU 或更多。有關詳細要求，請參閱 系統和用戶節點池 。</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1286,7 +1286,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>f230e754-6818-4428-b2ad-7ad543723f80</t>
+          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使 System 節點池與應用程式工作負載隔離。</t>
+          <t>集群和工作負載架構：根據特定要求將應用程式分離到專用節點池中。</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>系統節點池需要至少 2 個 vCPU 和 4 GB 記憶體的 VM SKU，但建議使用 4 個 vCPU 或更多。有關詳細要求，請參閱 系統和用戶節點池 。</t>
+          <t>應用程式可能共用相同的配置，並且需要支援 GPU 的 VM、CPU 或記憶體優化的 VM，或者能夠擴展到零。避免使用大量節點池，以減少額外的管理開銷。</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1320,7 +1320,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f51b6cdd-3914-4e11-a8e8-f2cf61788e84</t>
+          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：根據特定要求將應用程式分離到專用節點池中。</t>
+          <t>集群架構：將 NAT 閘道用於運行建立許多併發出站連接的工作負載的集群。</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>應用程式可能共用相同的配置，並且需要支援 GPU 的 VM、CPU 或記憶體優化的 VM，或者能夠擴展到零。避免使用大量節點池，以減少額外的管理開銷。</t>
+          <t>為了避免 Azure 負載均衡器限制的高併發出站流量的可靠性問題，請改用 NAT 閘道來支持大規模可靠的出口流量。</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1354,7 +1354,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>e303e4a0-0b81-47bd-bd44-bede44825fa2</t>
+          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1367,12 +1367,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>集群架構：將 NAT 閘道用於運行建立許多併發出站連接的工作負載的集群。</t>
+          <t>群集體系結構：使用 Microsoft Entra 集成。</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>為了避免 Azure 負載均衡器限制的高併發出站流量的可靠性問題，請改用 NAT 閘道來支持大規模可靠的出口流量。</t>
+          <t>使用 Microsoft Entra ID 可集中標識管理元件。用戶帳戶或組狀態的任何更改都會在訪問 AKS 群集時自動更新。Kubernetes 集群的開發人員和應用程式擁有者需要訪問不同的資源。</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1388,7 +1388,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>ff84fa04-ee66-4605-85f3-803dd2cab3c4</t>
+          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1401,12 +1401,12 @@
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Microsoft Entra 集成。</t>
+          <t>群集體系結構：使用 Microsoft Entra ID 對 Azure 容器註冊表進行身份驗證。</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>使用 Microsoft Entra ID 可集中標識管理元件。用戶帳戶或組狀態的任何更改都會在訪問 AKS 群集時自動更新。Kubernetes 集群的開發人員和應用程式擁有者需要訪問不同的資源。</t>
+          <t>AKS 和 Microsoft Entra ID 支援使用 Azure 容器註冊表進行身份驗證，而無需使用“imagePullSecrets”機密。有關詳細資訊，請查看從 Azure Kubernetes 服務使用 Azure 容器註冊表進行身份驗證。</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>03a24546-1e4a-46d6-ad0c-63e80d157b51</t>
+          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1435,12 +1435,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Microsoft Entra ID 對 Azure 容器註冊表進行身份驗證。</t>
+          <t>群集體系結構：使用專用 AKS 群集保護到 API 伺服器的網路流量。</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>AKS 和 Microsoft Entra ID 支援使用 Azure 容器註冊表進行身份驗證，而無需使用“imagePullSecrets”機密。有關詳細資訊，請查看從 Azure Kubernetes 服務使用 Azure 容器註冊表進行身份驗證。</t>
+          <t>默認情況下，節點池和 API 伺服器之間的網路流量通過 Microsoft 主幹網路傳輸;通過使用私有集群，您可以確保到 API 伺服器的網路流量僅保留在私有網路上。</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>dc50fb2f-f5e9-4ea2-a1b8-36fbf1e1bec4</t>
+          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用專用 AKS 群集保護到 API 伺服器的網路流量。</t>
+          <t>群集體系結構：對於非專用 AKS 群集，請使用 API 伺服器授權的 IP 範圍。</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>默認情況下，節點池和 API 伺服器之間的網路流量通過 Microsoft 主幹網路傳輸;通過使用私有集群，您可以確保到 API 伺服器的網路流量僅保留在私有網路上。</t>
+          <t>使用公有集群時，您仍然可以使用授權的IP範圍功能來限制可以訪問集群 API 伺服器的流量。包括部署生成代理的公共IP、操作管理和節點池的出口點（例如 Azure 防火牆）等源。</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3d11d647-363f-469c-bea9-9ef27a9bee70</t>
+          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1503,12 +1503,12 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：對於非專用 AKS 群集，請使用 API 伺服器授權的 IP 範圍。</t>
+          <t>群集體系結構：使用 Microsoft Entra RBAC 保護 API 伺服器。</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>使用公有集群時，您仍然可以使用授權的IP範圍功能來限制可以訪問集群 API 伺服器的流量。包括部署生成代理的公共IP、操作管理和節點池的出口點（例如 Azure 防火牆）等源。</t>
+          <t>保護對 Kubernetes API 伺服器的訪問是保護集群的最重要措施之一。將 Kubernetes 基於角色的訪問控制 （RBAC） 與 Microsoft Entra ID 整合，以控制對 API 伺服器的訪問。禁用本地帳戶以使用基於 Microsoft Entra ID 的身份強制實施所有群集訪問。</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1524,7 +1524,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>0418c965-c483-41bc-933c-9289108b8ad0</t>
+          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Microsoft Entra RBAC 保護 API 伺服器。</t>
+          <t>群集體系結構：使用 Azure 網路策略或 Calico。</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>保護對 Kubernetes API 伺服器的訪問是保護集群的最重要措施之一。將 Kubernetes 基於角色的訪問控制 （RBAC） 與 Microsoft Entra ID 整合，以控制對 API 伺服器的訪問。禁用本地帳戶以使用基於 Microsoft Entra ID 的身份強制實施所有群集訪問。</t>
+          <t>保護和控制集群中 Pod 之間的網路流量。</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1558,7 +1558,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>951727b0-fd7b-4d09-8ae6-384f8441c234</t>
+          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1571,12 +1571,12 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Azure 網路策略或 Calico。</t>
+          <t>群集體系結構：使用 Azure Policy 保護群集和 Pod。</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>保護和控制集群中 Pod 之間的網路流量。</t>
+          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>68a66542-3c31-43c4-8a16-a05ab2a4df5f</t>
+          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1605,12 +1605,12 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Azure Policy 保護群集和 Pod。</t>
+          <t>集群架構：保護容器對資源的訪問。</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
+          <t>限制對容器可以執行的操作的訪問。提供最少數量的許可權，並避免使用 root 或特權升級。</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1626,7 +1626,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>c99d155b-6a13-4f61-8672-356b1ed3a922</t>
+          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>集群架構：保護容器對資源的訪問。</t>
+          <t>工作負載架構：使用 Web 應用程式防火牆保護 HTTP（S） 流量。</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>限制對容器可以執行的操作的訪問。提供最少數量的許可權，並避免使用 root 或特權升級。</t>
+          <t>若要掃描傳入流量是否存在潛在攻擊，請使用 Web 應用程式防火牆，例如 Azure 應用程式閘道或 Azure Front Door 上的 Azure Web 應用程式防火牆 （WAF）。</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1660,7 +1660,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>43384eb1-7b95-44aa-9c60-e09652b18521</t>
+          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用 Web 應用程式防火牆保護 HTTP（S） 流量。</t>
+          <t>集群架構：控制集群出口流量。</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>若要掃描傳入流量是否存在潛在攻擊，請使用 Web 應用程式防火牆，例如 Azure 應用程式閘道或 Azure Front Door 上的 Azure Web 應用程式防火牆 （WAF）。</t>
+          <t>確保群集的出站流量通過網路安全點（如 Azure 防火牆或 HTTP 代理）傳遞。</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1694,7 +1694,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>ae6a3199-847d-4901-bad1-63be20d584b8</t>
+          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1707,12 +1707,12 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>集群架構：控制集群出口流量。</t>
+          <t>群集體系結構：將開源 Microsoft Entra 工作負載 ID 和機密存儲 CSI 驅動程式與 Azure Key Vault 配合使用。</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>確保群集的出站流量通過網路安全點（如 Azure 防火牆或 HTTP 代理）傳遞。</t>
+          <t>使用強加密保護和輪換 Azure Key Vault 中的機密、證書和連接字串。提供訪問審核日誌，並將核心密鑰排除在部署管道之外。</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>d67db716-6569-4a40-b18f-01052c02399f</t>
+          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：將開源 Microsoft Entra 工作負載 ID 和機密存儲 CSI 驅動程式與 Azure Key Vault 配合使用。</t>
+          <t>群集體系結構：使用適用於容器的 Microsoft Defender。</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>使用強加密保護和輪換 Azure Key Vault 中的機密、證書和連接字串。提供訪問審核日誌，並將核心密鑰排除在部署管道之外。</t>
+          <t>監控和維護集群、容器及其應用程式的安全性。</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1760,7 +1760,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>bc5240f0-9c6d-469e-bf71-9f8d4bf18c29</t>
+          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用適用於容器的 Microsoft Defender。</t>
+          <t>群集和工作負載體系結構：使 SKU 選擇和託管磁碟大小與工作負載要求保持一致。</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>監控和維護集群、容器及其應用程式的安全性。</t>
+          <t>將您的選擇與您的工作負載需求相匹配，可確保您不會為不需要的資源付費。</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1793,7 +1793,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2ac2d30a-a96a-4d14-b63d-7e2e3147ea9e</t>
+          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1806,12 +1806,12 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>群集和工作負載體系結構：使 SKU 選擇和託管磁碟大小與工作負載要求保持一致。</t>
+          <t>集群架構：選擇正確的虛擬機實例類型。</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>將您的選擇與您的工作負載需求相匹配，可確保您不會為不需要的資源付費。</t>
+          <t>選擇正確的虛擬機實例類型至關重要，因為它直接影響在AKS上運行應用程式的成本。選擇高性能實例而沒有適當利用可能會導致浪費支出，而選擇功能較弱的實例可能會導致性能問題和停機時間增加。要確定正確的虛擬機實例類型，請考慮工作負載特徵、資源要求和可用性需求。</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>
@@ -1826,7 +1826,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>93a3ae7a-6f04-471b-bb3f-5eb4e6664c5b</t>
+          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -1839,12 +1839,12 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>集群架構：選擇正確的虛擬機實例類型。</t>
+          <t>集群架構：根據Arm架構選擇虛擬機。</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>選擇正確的虛擬機實例類型至關重要，因為它直接影響在AKS上運行應用程式的成本。選擇高性能實例而沒有適當利用可能會導致浪費支出，而選擇功能較弱的實例可能會導致性能問題和停機時間增加。要確定正確的虛擬機實例類型，請考慮工作負載特徵、資源要求和可用性需求。</t>
+          <t>AKS 支援在群集中創建ARM64 Ubuntu代理節點，以及混合Intel和ARM體系結構節點，這些節點可以以更低的成本帶來更好的性能。</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1859,7 +1859,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>f16a2684-c225-4fd5-8202-8ea1db7f18e7</t>
+          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="B32" s="21" t="n"/>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>集群架構：根據Arm架構選擇虛擬機。</t>
+          <t>群集體系結構：選擇 Azure 現成虛擬機。</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>AKS 支援在群集中創建ARM64 Ubuntu代理節點，以及混合Intel和ARM體系結構節點，這些節點可以以更低的成本帶來更好的性能。</t>
+          <t>通過現成 VM，您可以利用未利用的 Azure 容量，並享受大幅折扣（與即用即付價格相比，折扣高達 90%）。如果 Azure 需要恢復容量，Azure 基礎結構會逐出 Spot 節點。</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f0572fdc-24e3-4e6c-8c90-0ba85cc6f52a</t>
+          <t>15372689-94ad-4247-a157-fde418217ce4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：選擇 Azure 現成虛擬機。</t>
+          <t>集群架構：選擇合適的區域。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>通過現成 VM，您可以利用未利用的 Azure 容量，並享受大幅折扣（與即用即付價格相比，折扣高達 90%）。如果 Azure 需要恢復容量，Azure 基礎結構會逐出 Spot 節點。</t>
+          <t>由於許多因素，Azure 中的資源成本因區域而異。評估成本、延遲和合規性要求，以確保您經濟高效地運行工作負載，並且不會影響您的最終使用者或產生額外的網路費用。</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1927,7 +1927,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>15372689-94ad-4247-a157-fde418217ce4</t>
+          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -1940,12 +1940,12 @@
       <c r="B34" s="21" t="n"/>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>集群架構：選擇合適的區域。</t>
+          <t>工作負載架構：維護小型和優化的映像。</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>由於許多因素，Azure 中的資源成本因區域而異。評估成本、延遲和合規性要求，以確保您經濟高效地運行工作負載，並且不會影響您的最終使用者或產生額外的網路費用。</t>
+          <t>簡化映像有助於降低成本，因為新節點需要下載這些映像。以允許容器儘快啟動的方式構建映像，以説明避免在應用程式啟動時使用者請求失敗或超時，從而可能導致過度配置。</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1961,7 +1961,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>41a6e1ef-d63a-4e26-842f-1a0cde3abaa6</t>
+          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -1974,12 +1974,12 @@
       <c r="B35" s="21" t="n"/>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：維護小型和優化的映像。</t>
+          <t>集群架構：啟用 Cluster Autoscaler 以自動減少代理節點的數量，以響應資源容量過剩。</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>簡化映像有助於降低成本，因為新節點需要下載這些映像。以允許容器儘快啟動的方式構建映像，以説明避免在應用程式啟動時使用者請求失敗或超時，從而可能導致過度配置。</t>
+          <t>通過自動縮減 AKS 群集中的節點數，可以在需求較低時運行高效的群集，並在需求恢復時縱向擴展。</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>
@@ -1995,7 +1995,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e689c267-1eaa-444d-806e-c5a0735658de</t>
+          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2008,12 +2008,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>集群架構：啟用 Cluster Autoscaler 以自動減少代理節點的數量，以響應資源容量過剩。</t>
+          <t>群集體系結構：啟用 Node Autoprovision 以自動選擇 VM SKU。</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>通過自動縮減 AKS 群集中的節點數，可以在需求較低時運行高效的群集，並在需求恢復時縱向擴展。</t>
+          <t>節點自動配置簡化了 SKU 選擇過程，並根據待處理的 Pod 資源要求決定最佳 VM 配置，以最高效、最經濟高效的方式運行工作負載。</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -2029,7 +2029,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e770ea75-690d-4dc0-a0e4-43c17b6bb56f</t>
+          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2042,12 +2042,12 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：啟用 Node Autoprovision 以自動選擇 VM SKU。</t>
+          <t>工作負載架構：使用 Horizontal Pod Autoscaler。</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>節點自動配置簡化了 SKU 選擇過程，並根據待處理的 Pod 資源要求決定最佳 VM 配置，以最高效、最經濟高效的方式運行工作負載。</t>
+          <t>根據 CPU 利用率或其他支援集群縮減操作的選擇指標調整部署中的 Pod 數量。</t>
         </is>
       </c>
       <c r="E37" s="21" t="n"/>
@@ -2063,7 +2063,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9994ccff-d3d4-46e3-92cb-d04231859e20</t>
+          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2076,12 +2076,12 @@
       <c r="B38" s="21" t="n"/>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用 Horizontal Pod Autoscaler。</t>
+          <t>工作負載架構：使用 Vertical Pod Autoscaler（預覽版）。</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>根據 CPU 利用率或其他支援集群縮減操作的選擇指標調整部署中的 Pod 數量。</t>
+          <t>合理調整 Pod 的大小，並根據歷史使用方式動態設置請求和限制。</t>
         </is>
       </c>
       <c r="E38" s="21" t="n"/>
@@ -2097,7 +2097,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1321c176-e53a-4451-91cf-e4e50c637d07</t>
+          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2110,12 +2110,12 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用 Vertical Pod Autoscaler（預覽版）。</t>
+          <t>工作負載架構：使用 Kubernetes 事件驅動的自動擴展 （KEDA）。</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>合理調整 Pod 的大小，並根據歷史使用方式動態設置請求和限制。</t>
+          <t>根據正在處理的事件數量進行擴展。從 50+ KEDA 潔牙機的豐富目錄中進行選擇。</t>
         </is>
       </c>
       <c r="E39" s="21" t="n"/>
@@ -2131,7 +2131,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>554e18fe-b835-4e78-8d27-6f49999855ad</t>
+          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2144,12 +2144,12 @@
       <c r="B40" s="21" t="n"/>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用 Kubernetes 事件驅動的自動擴展 （KEDA）。</t>
+          <t>集群和工作負載架構：採用雲財務規則和文化實踐來推動雲使用的擁有權。</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>根據正在處理的事件數量進行擴展。從 50+ KEDA 潔牙機的豐富目錄中進行選擇。</t>
+          <t>實現成本優化的基礎是成本節約集群的分佈。財務運營方法 （FinOps） 通常用於幫助組織降低雲成本。這是一種涉及財務、運營和工程團隊之間協作的做法，旨在推動成本節約目標的一致性並提高雲成本的透明度。</t>
         </is>
       </c>
       <c r="E40" s="21" t="n"/>
@@ -2165,7 +2165,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>fe15f362-a48d-4a25-aa3e-7938b3d1f5e2</t>
+          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2178,12 +2178,12 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：採用雲財務規則和文化實踐來推動雲使用的擁有權。</t>
+          <t>群集體系結構：註冊 Azure 預留或 Azure 節省計劃。</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>實現成本優化的基礎是成本節約集群的分佈。財務運營方法 （FinOps） 通常用於幫助組織降低雲成本。這是一種涉及財務、運營和工程團隊之間協作的做法，旨在推動成本節約目標的一致性並提高雲成本的透明度。</t>
+          <t>如果正確規劃了容量，工作負載是可預測的，並且存在較長時間，請註冊 Azure 預留或節省計劃，以進一步降低資源成本。</t>
         </is>
       </c>
       <c r="E41" s="21" t="n"/>
@@ -2199,7 +2199,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d0ed8b85-2072-4952-a00c-697135e435a2</t>
+          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2212,12 +2212,12 @@
       <c r="B42" s="21" t="n"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：註冊 Azure 預留或 Azure 節省計劃。</t>
+          <t>群集體系結構：配置 AKS 成本分析載入項。</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>如果正確規劃了容量，工作負載是可預測的，並且存在較長時間，請註冊 Azure 預留或節省計劃，以進一步降低資源成本。</t>
+          <t>成本分析集群擴展使您能夠精細地瞭解與集群或命名空間中的各種 Kubernetes 資源相關的成本。</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>9d4b8d27-c793-4862-94c8-c2505205f07f</t>
+          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2246,12 +2246,12 @@
       <c r="B43" s="21" t="n"/>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Container Insights 配置群集監視。</t>
+          <t>群集和工作負載體系結構：查看 AKS 最佳做法文檔。</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>容器見解有助於提供有關集群空閒和未分配資源的可行見解。容器見解還支援收集 Prometheus 指標，並與 Azure 託管 Grafana 集成，以獲得應用程式和基礎結構的整體視圖。</t>
+          <t>要在 AKS 中成功構建和運行應用程式，需要瞭解和實施一些關鍵注意事項。這些領域包括多租戶和計劃程式功能、集群和 Pod 安全性，或業務連續性和災難恢復。</t>
         </is>
       </c>
       <c r="E43" s="21" t="n"/>
@@ -2267,7 +2267,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>f4113186-82e7-495e-90e8-0da553de3039</t>
+          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2280,12 +2280,12 @@
       <c r="B44" s="21" t="n"/>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：配置 AKS 成本分析載入項。</t>
+          <t>群集和工作負載體系結構：查看 Azure Chaos Studio。</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>成本分析集群擴展使您能夠精細地瞭解與集群或命名空間中的各種 Kubernetes 資源相關的成本。</t>
+          <t>Azure Chaos Studio 可以幫助類比故障並觸發災難恢復情況。</t>
         </is>
       </c>
       <c r="E44" s="21" t="n"/>
@@ -2301,7 +2301,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>43cae555-15bd-4cd7-90b9-905d40528506</t>
+          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2314,12 +2314,12 @@
       <c r="B45" s="21" t="n"/>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>群集和工作負載體系結構：查看 AKS 最佳做法文檔。</t>
+          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>要在 AKS 中成功構建和運行應用程式，需要瞭解和實施一些關鍵注意事項。這些領域包括多租戶和計劃程式功能、集群和 Pod 安全性，或業務連續性和災難恢復。</t>
+          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
         </is>
       </c>
       <c r="E45" s="21" t="n"/>
@@ -2334,7 +2334,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4ea51e35-26bb-4a2b-a7ca-435eb6d857b9</t>
+          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2347,12 +2347,12 @@
       <c r="B46" s="21" t="n"/>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>群集和工作負載體系結構：查看 Azure Chaos Studio。</t>
+          <t>群集體系結構：使用 Azure Policy 實施群集和 Pod 配置標準。</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Azure Chaos Studio 可以幫助類比故障並觸發災難恢復情況。</t>
+          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
         </is>
       </c>
       <c r="E46" s="21" t="n"/>
@@ -2368,7 +2368,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>d38b720a-0b27-409f-9dfa-28f698067a19</t>
+          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2381,12 +2381,12 @@
       <c r="B47" s="21" t="n"/>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：使用 Container Insights 配置集群監控。</t>
+          <t>工作負載架構：在發佈工程流程中使用平臺功能。</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>容器見解通過指標 API 和容器日誌從 Kubernetes 中提供的控制器、節點和容器收集記憶體和處理器指標，從而幫助監控容器的性能。</t>
+          <t>Kubernetes 和 Ingress 控制器支援許多高級部署模式，以包含在您的發佈工程流程中。考慮藍綠部署或 Canary 發佈等模式。</t>
         </is>
       </c>
       <c r="E47" s="21" t="n"/>
@@ -2402,7 +2402,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>76d86a61-446d-4597-a547-9ba4d9c25377</t>
+          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2415,12 +2415,12 @@
       <c r="B48" s="21" t="n"/>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>工作負載體系結構：使用 Azure Monitor 監視應用程式性能。</t>
+          <t>集群和工作負載架構：對於任務關鍵型工作負載，請使用標記級藍/綠部署。</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>配置 Application Insights，以便對 AKS 群集中運行的應用程式進行基於代碼的監視。</t>
+          <t>自動化您的任務關鍵型設計領域，包括部署和測試。</t>
         </is>
       </c>
       <c r="E48" s="21" t="n"/>
@@ -2435,7 +2435,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>b7c8f991-0c99-4f2e-8ed9-1b0bcffc2b42</t>
+          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2448,12 +2448,12 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：使用 Container Insights 配置 Prometheus 指標的抓取。</t>
+          <t>集群和工作負載架構：制定詳細的容量計劃並不斷審查和修訂。</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>容器見解是 Azure Monitor 的一部分，提供無縫的載入體驗來收集 Prometheus 指標。有關更多資訊，請參閱配置 Prometheus 指標的抓取。</t>
+          <t>在正式確定容量計劃后，應通過持續觀察集群的資源利用率來經常更新它。</t>
         </is>
       </c>
       <c r="E49" s="21" t="n"/>
@@ -2468,7 +2468,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>959a2059-d560-4f51-8f9a-c68b0a595beb</t>
+          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2481,12 +2481,12 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：通過部署跨不同 Azure 區域部署的 AKS 群集來採用多區域策略，以最大程度地提高可用性並提供業務連續性。</t>
+          <t>集群架構：啟用 Cluster Autoscaler 以自動調整代理節點的數量以響應資源限制。</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>面向 Internet 的工作負載應利用 Azure Front Door 或 Azure 流量管理器跨 AKS 群集全域路由流量。</t>
+          <t>通過自動增加或減少 AKS 群集中的節點數，可以運行高效、經濟高效的群集。</t>
         </is>
       </c>
       <c r="E50" s="21" t="n"/>
@@ -2502,7 +2502,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>72c0719b-444b-49fa-b3fb-598de4c4a99d</t>
+          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2515,12 +2515,12 @@
       <c r="B51" s="21" t="n"/>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>群集體系結構：使用 Azure Policy 實施群集和 Pod 配置標準。</t>
+          <t>集群和工作負載架構：將工作負載分離到不同的節點池中，並考慮擴展用戶節點池。</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy 有助於以集中、一致的方式在群集上應用大規模強制和保護措施。它還可以控制授予 Pod 的功能，以及是否有任何功能違反公司策略。</t>
+          <t>與始終需要運行節點的系統節點池不同，用戶節點池允許您擴展或縮減。</t>
         </is>
       </c>
       <c r="E51" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>4fa55d17-b08b-4885-8d5b-d8cfbe3eda59</t>
+          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2549,12 +2549,12 @@
       <c r="B52" s="21" t="n"/>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>工作負載架構：在發佈工程流程中使用平臺功能。</t>
+          <t>工作負載體系結構：使用 AKS 高級計劃程式功能。</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Kubernetes 和 Ingress 控制器支援許多高級部署模式，以包含在您的發佈工程流程中。考慮藍綠部署或 Canary 發佈等模式。</t>
+          <t>説明控制需要資源的工作負載的資源平衡。</t>
         </is>
       </c>
       <c r="E52" s="21" t="n"/>
@@ -2570,7 +2570,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>40bf5a02-ca6a-410d-9b6a-87fe75ff0873</t>
+          <t>e452f566-2a10-4119-a802-aeab44201971</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2583,12 +2583,12 @@
       <c r="B53" s="21" t="n"/>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>集群和工作負載架構：對於任務關鍵型工作負載，請使用標記級藍/綠部署。</t>
+          <t>工作負載架構：使用有意義的工作負載擴展指標。</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>自動化您的任務關鍵型設計領域，包括部署和測試。</t>
+          <t>並非所有擴展決策都可以從 CPU 或記憶體指標得出。通常，規模考慮因素來自更複雜甚至外部的數據點。使用 KEDA 根據特定於您的工作負載的信號構建有意義的 Auto Scale 規則集。</t>
         </is>
       </c>
       <c r="E53" s="21" t="n"/>
@@ -2603,7 +2603,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>dec76a46-6005-4c3e-ac2c-70b7214a28ba</t>
+          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2614,32 +2614,15 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="n"/>
       <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>集群和工作負載架構：制定詳細的容量計劃並不斷審查和修訂。</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>在正式確定容量計劃后，應通過持續觀察集群的資源利用率來經常更新它。</t>
-        </is>
-      </c>
+      <c r="C54" s="21" t="n"/>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="n"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>9f2cef22-f674-4702-a57a-5dcf90bf9143</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
@@ -2648,31 +2631,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="n"/>
       <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>集群架構：啟用 Cluster Autoscaler 以自動調整代理節點的數量以響應資源限制。</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>通過自動增加或減少 AKS 群集中的節點數，可以運行高效、經濟高效的群集。</t>
-        </is>
-      </c>
+      <c r="C55" s="21" t="n"/>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="n"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>d50d653b-0d8d-44ca-8ba6-9963321d1f24</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
@@ -2681,31 +2647,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="n"/>
       <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>集群和工作負載架構：將工作負載分離到不同的節點池中，並考慮擴展用戶節點池。</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>與始終需要運行節點的系統節點池不同，用戶節點池允許您擴展或縮減。</t>
-        </is>
-      </c>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="n"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>cd14e737-9478-4fb4-9556-586b03d5e248</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
@@ -2714,31 +2663,14 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="n"/>
       <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>工作負載體系結構：使用 AKS 高級計劃程式功能。</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>説明控制需要資源的工作負載的資源平衡。</t>
-        </is>
-      </c>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="n"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>e452f566-2a10-4119-a802-aeab44201971</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
@@ -2747,31 +2679,14 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="n"/>
       <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>工作負載架構：使用有意義的工作負載擴展指標。</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>並非所有擴展決策都可以從 CPU 或記憶體指標得出。通常，規模考慮因素來自更複雜甚至外部的數據點。使用 KEDA 根據特定於您的工作負載的信號構建有意義的 Auto Scale 規則集。</t>
-        </is>
-      </c>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="n"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>未驗證</t>
-        </is>
-      </c>
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>43df6223-dfca-447d-9b00-f4742ef18be1</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
@@ -6674,7 +6589,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F59" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F54" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
